--- a/FALL 19/CSE 104/results_cse104_sec1.xlsx
+++ b/FALL 19/CSE 104/results_cse104_sec1.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D966ADCB-352A-43CC-94B9-22B23E85C672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="quiz1" sheetId="1" r:id="rId1"/>
-    <sheet name="quiz2" sheetId="4" r:id="rId2"/>
-    <sheet name="quiz_final" sheetId="5" r:id="rId3"/>
-    <sheet name="mid" sheetId="2" r:id="rId4"/>
-    <sheet name="final" sheetId="3" r:id="rId5"/>
+    <sheet name="attendance" sheetId="6" r:id="rId1"/>
+    <sheet name="quiz1" sheetId="1" r:id="rId2"/>
+    <sheet name="quiz2" sheetId="4" r:id="rId3"/>
+    <sheet name="quiz_final" sheetId="5" r:id="rId4"/>
+    <sheet name="mid" sheetId="2" r:id="rId5"/>
+    <sheet name="final" sheetId="3" r:id="rId6"/>
+    <sheet name="project" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -211,12 +215,27 @@
   <si>
     <t>Converted_Total</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +318,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,11 +447,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,12 +527,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -696,6 +747,68 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -707,6 +820,584 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>192014005</v>
+          </cell>
+          <cell r="C2">
+            <v>8</v>
+          </cell>
+          <cell r="D2">
+            <v>192014005</v>
+          </cell>
+          <cell r="E2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>192014025</v>
+          </cell>
+          <cell r="C3">
+            <v>8</v>
+          </cell>
+          <cell r="D3">
+            <v>192014025</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>192014014</v>
+          </cell>
+          <cell r="C4">
+            <v>8</v>
+          </cell>
+          <cell r="D4">
+            <v>192014014</v>
+          </cell>
+          <cell r="E4">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>192014008</v>
+          </cell>
+          <cell r="C5">
+            <v>8</v>
+          </cell>
+          <cell r="D5">
+            <v>192014008</v>
+          </cell>
+          <cell r="E5">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>192014035</v>
+          </cell>
+          <cell r="C6">
+            <v>8</v>
+          </cell>
+          <cell r="D6">
+            <v>192014035</v>
+          </cell>
+          <cell r="E6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>182014025</v>
+          </cell>
+          <cell r="C8">
+            <v>7</v>
+          </cell>
+          <cell r="D8">
+            <v>182014025</v>
+          </cell>
+          <cell r="E8">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>191014058</v>
+          </cell>
+          <cell r="C9">
+            <v>7</v>
+          </cell>
+          <cell r="D9">
+            <v>191014058</v>
+          </cell>
+          <cell r="E9">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>191014021</v>
+          </cell>
+          <cell r="C10">
+            <v>7</v>
+          </cell>
+          <cell r="D10">
+            <v>191014021</v>
+          </cell>
+          <cell r="E10">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>191014081</v>
+          </cell>
+          <cell r="C11">
+            <v>7</v>
+          </cell>
+          <cell r="D11">
+            <v>191014081</v>
+          </cell>
+          <cell r="E11">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>192014045</v>
+          </cell>
+          <cell r="C12">
+            <v>7</v>
+          </cell>
+          <cell r="D12">
+            <v>192014045</v>
+          </cell>
+          <cell r="E12">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>191014054</v>
+          </cell>
+          <cell r="C14">
+            <v>7.5</v>
+          </cell>
+          <cell r="D14">
+            <v>191014054</v>
+          </cell>
+          <cell r="E14">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>192014047</v>
+          </cell>
+          <cell r="C15">
+            <v>7.5</v>
+          </cell>
+          <cell r="D15">
+            <v>192014047</v>
+          </cell>
+          <cell r="E15">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>192014022</v>
+          </cell>
+          <cell r="C16">
+            <v>7.5</v>
+          </cell>
+          <cell r="D16">
+            <v>192014022</v>
+          </cell>
+          <cell r="E16">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>192014016</v>
+          </cell>
+          <cell r="C17">
+            <v>7.5</v>
+          </cell>
+          <cell r="D17">
+            <v>192014016</v>
+          </cell>
+          <cell r="E17">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>171014001</v>
+          </cell>
+          <cell r="C18">
+            <v>7.5</v>
+          </cell>
+          <cell r="D18">
+            <v>171014001</v>
+          </cell>
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>192014037</v>
+          </cell>
+          <cell r="C20">
+            <v>9</v>
+          </cell>
+          <cell r="D20">
+            <v>192014037</v>
+          </cell>
+          <cell r="E20">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>192014036</v>
+          </cell>
+          <cell r="C21">
+            <v>9</v>
+          </cell>
+          <cell r="D21">
+            <v>192014036</v>
+          </cell>
+          <cell r="E21">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>192014032</v>
+          </cell>
+          <cell r="C22">
+            <v>9</v>
+          </cell>
+          <cell r="D22">
+            <v>192014032</v>
+          </cell>
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>192014027</v>
+          </cell>
+          <cell r="C23">
+            <v>9</v>
+          </cell>
+          <cell r="D23">
+            <v>192014027</v>
+          </cell>
+          <cell r="E23">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>181014084</v>
+          </cell>
+          <cell r="C24">
+            <v>9</v>
+          </cell>
+          <cell r="D24">
+            <v>181014084</v>
+          </cell>
+          <cell r="E24">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>192014026</v>
+          </cell>
+          <cell r="C26">
+            <v>10</v>
+          </cell>
+          <cell r="D26">
+            <v>192014026</v>
+          </cell>
+          <cell r="E26">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>171011197</v>
+          </cell>
+          <cell r="C27">
+            <v>10</v>
+          </cell>
+          <cell r="D27">
+            <v>171011197</v>
+          </cell>
+          <cell r="E27">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>192014033</v>
+          </cell>
+          <cell r="C28">
+            <v>10</v>
+          </cell>
+          <cell r="D28">
+            <v>192014033</v>
+          </cell>
+          <cell r="E28">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>192014044</v>
+          </cell>
+          <cell r="C29">
+            <v>10</v>
+          </cell>
+          <cell r="D29">
+            <v>192014044</v>
+          </cell>
+          <cell r="E29">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>183014016</v>
+          </cell>
+          <cell r="C30">
+            <v>10</v>
+          </cell>
+          <cell r="D30">
+            <v>183014016</v>
+          </cell>
+          <cell r="E30">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>191014048</v>
+          </cell>
+          <cell r="C32">
+            <v>8.5</v>
+          </cell>
+          <cell r="D32">
+            <v>191014048</v>
+          </cell>
+          <cell r="E32">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>183014065</v>
+          </cell>
+          <cell r="C33">
+            <v>8.5</v>
+          </cell>
+          <cell r="D33">
+            <v>183014065</v>
+          </cell>
+          <cell r="E33">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>192014001</v>
+          </cell>
+          <cell r="C34">
+            <v>8.5</v>
+          </cell>
+          <cell r="D34">
+            <v>192014001</v>
+          </cell>
+          <cell r="E34">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>192014040</v>
+          </cell>
+          <cell r="C35">
+            <v>8.5</v>
+          </cell>
+          <cell r="D35">
+            <v>192014040</v>
+          </cell>
+          <cell r="E35">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>192014007</v>
+          </cell>
+          <cell r="C36">
+            <v>8.5</v>
+          </cell>
+          <cell r="D36">
+            <v>192014007</v>
+          </cell>
+          <cell r="E36">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>192014004</v>
+          </cell>
+          <cell r="C38">
+            <v>7.5</v>
+          </cell>
+          <cell r="D38">
+            <v>192014004</v>
+          </cell>
+          <cell r="E38">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>192014010</v>
+          </cell>
+          <cell r="C39">
+            <v>7.5</v>
+          </cell>
+          <cell r="D39">
+            <v>192014010</v>
+          </cell>
+          <cell r="E39">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>192014006</v>
+          </cell>
+          <cell r="C40">
+            <v>7.5</v>
+          </cell>
+          <cell r="D40">
+            <v>192014006</v>
+          </cell>
+          <cell r="E40">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>192014009</v>
+          </cell>
+          <cell r="C41">
+            <v>7.5</v>
+          </cell>
+          <cell r="D41">
+            <v>192014009</v>
+          </cell>
+          <cell r="E41">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>193014075</v>
+          </cell>
+          <cell r="C42">
+            <v>7.5</v>
+          </cell>
+          <cell r="D42">
+            <v>193014075</v>
+          </cell>
+          <cell r="E42">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>192014038</v>
+          </cell>
+          <cell r="C44">
+            <v>10</v>
+          </cell>
+          <cell r="D44">
+            <v>192014038</v>
+          </cell>
+          <cell r="E44">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>192014041</v>
+          </cell>
+          <cell r="C45">
+            <v>10</v>
+          </cell>
+          <cell r="D45">
+            <v>192014041</v>
+          </cell>
+          <cell r="E45">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>192014024</v>
+          </cell>
+          <cell r="C46">
+            <v>10</v>
+          </cell>
+          <cell r="D46">
+            <v>192014024</v>
+          </cell>
+          <cell r="E46">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>192014034</v>
+          </cell>
+          <cell r="C47">
+            <v>10</v>
+          </cell>
+          <cell r="D47">
+            <v>192014034</v>
+          </cell>
+          <cell r="E47">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>181016002</v>
+          </cell>
+          <cell r="C48">
+            <v>10</v>
+          </cell>
+          <cell r="D48">
+            <v>181016002</v>
+          </cell>
+          <cell r="E48">
+            <v>9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,27 +1475,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,24 +1509,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,25 +1684,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="38" customWidth="1"/>
+    <col min="3" max="8" width="14.7109375" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="26">
+        <v>171011197</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="29">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29">
+        <f>C2-D2</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="29">
+        <f>ROUNDUP((E2/C2)*F$42,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="36">
+        <f>(F2/F$42)*100</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="37" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26">
+        <v>171014001</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29">
+        <v>22</v>
+      </c>
+      <c r="D3" s="38">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E41" si="0">C3-D3</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="29">
+        <f t="shared" ref="F3:F41" si="1">ROUNDUP((E3/C3)*F$42,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="36">
+        <f t="shared" ref="G3:G41" si="2">(F3/F$42)*100</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="37" t="str">
+        <f t="shared" ref="H3:H41" si="3">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26">
+        <v>181014084</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="29">
+        <v>22</v>
+      </c>
+      <c r="D4" s="38">
+        <v>22</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="26">
+        <v>182014025</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="29">
+        <v>22</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H5" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26">
+        <v>183014016</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="38">
+        <v>19</v>
+      </c>
+      <c r="D6" s="40">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="26">
+        <v>183014065</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="29">
+        <v>22</v>
+      </c>
+      <c r="D7" s="40">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26">
+        <v>191014021</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="29">
+        <v>22</v>
+      </c>
+      <c r="D8" s="40">
+        <v>6</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H8" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26">
+        <v>191014048</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="29">
+        <v>22</v>
+      </c>
+      <c r="D9" s="40">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H9" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26">
+        <v>191014054</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="29">
+        <v>22</v>
+      </c>
+      <c r="D10" s="40">
+        <v>2</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="26">
+        <v>191014058</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="29">
+        <v>22</v>
+      </c>
+      <c r="D11" s="40">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H11" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="26">
+        <v>191014081</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29">
+        <v>22</v>
+      </c>
+      <c r="D12" s="40">
+        <v>4</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H12" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="26">
+        <v>192014001</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29">
+        <v>22</v>
+      </c>
+      <c r="D13" s="40">
+        <v>4</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H13" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="26">
+        <v>192014004</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29">
+        <v>22</v>
+      </c>
+      <c r="D14" s="40">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H14" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26">
+        <v>192014005</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="29">
+        <v>22</v>
+      </c>
+      <c r="D15" s="40">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26">
+        <v>192014006</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="38">
+        <v>20</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26">
+        <v>192014007</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="29">
+        <v>22</v>
+      </c>
+      <c r="D17" s="40">
+        <v>22</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26">
+        <v>192014008</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29">
+        <v>22</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F18" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26">
+        <v>192014009</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="29">
+        <v>22</v>
+      </c>
+      <c r="D19" s="40">
+        <v>13</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H19" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26">
+        <v>192014010</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="29">
+        <v>22</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26">
+        <v>192014014</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="29">
+        <v>22</v>
+      </c>
+      <c r="D21" s="40">
+        <v>4</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H21" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26">
+        <v>192014016</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="29">
+        <v>22</v>
+      </c>
+      <c r="D22" s="40">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F22" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H22" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="26">
+        <v>192014022</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="29">
+        <v>22</v>
+      </c>
+      <c r="D23" s="40">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G23" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H23" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26">
+        <v>192014024</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="29">
+        <v>22</v>
+      </c>
+      <c r="D24" s="40">
+        <v>3</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G24" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H24" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="26">
+        <v>192014025</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29">
+        <v>22</v>
+      </c>
+      <c r="D25" s="40">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G25" s="36">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H25" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26">
+        <v>192014026</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="29">
+        <v>22</v>
+      </c>
+      <c r="D26" s="40">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F26" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="36">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H26" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="26">
+        <v>192014027</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="29">
+        <v>22</v>
+      </c>
+      <c r="D27" s="40">
+        <v>7</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H27" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="26">
+        <v>192014032</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="29">
+        <v>22</v>
+      </c>
+      <c r="D28" s="40">
+        <v>3</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H28" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="26">
+        <v>192014033</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="29">
+        <v>22</v>
+      </c>
+      <c r="D29" s="40">
+        <v>4</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H29" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="26">
+        <v>192014034</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="29">
+        <v>22</v>
+      </c>
+      <c r="D30" s="40">
+        <v>7</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H30" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="26">
+        <v>192014035</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="29">
+        <v>22</v>
+      </c>
+      <c r="D31" s="40">
+        <v>0</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26">
+        <v>192014036</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="38">
+        <v>19</v>
+      </c>
+      <c r="D32" s="40">
+        <v>4</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F32" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H32" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="26">
+        <v>192014037</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="29">
+        <v>22</v>
+      </c>
+      <c r="D33" s="40">
+        <v>0</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F33" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H33" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="26">
+        <v>192014038</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="29">
+        <v>22</v>
+      </c>
+      <c r="D34" s="40">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="26">
+        <v>192014040</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="29">
+        <v>22</v>
+      </c>
+      <c r="D35" s="40">
+        <v>5</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="36">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H35" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="26">
+        <v>192014041</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="29">
+        <v>22</v>
+      </c>
+      <c r="D36" s="40">
+        <v>7</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G36" s="36">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H36" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="26">
+        <v>192014044</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="29">
+        <v>22</v>
+      </c>
+      <c r="D37" s="40">
+        <v>10</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="36">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H37" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="26">
+        <v>192014045</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="29">
+        <v>22</v>
+      </c>
+      <c r="D38" s="40">
+        <v>2</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H38" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="26">
+        <v>192014047</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="29">
+        <v>22</v>
+      </c>
+      <c r="D39" s="40">
+        <v>3</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F39" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G39" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H39" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="26">
+        <v>193014075</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="38">
+        <v>19</v>
+      </c>
+      <c r="D40" s="40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F40" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G40" s="36">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H40" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A41" s="31">
+        <v>181016002</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="21">
+        <v>22</v>
+      </c>
+      <c r="D41" s="18">
+        <v>13</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H41" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="F42" s="38">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:E2 E3:E41 C3:C5">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H41">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C15">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C31">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C39">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
-    <col min="3" max="13" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="34" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="3" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +3028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="26">
         <v>171011197</v>
       </c>
@@ -1140,7 +3077,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="26">
         <v>171014001</v>
       </c>
@@ -1189,7 +3126,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="26">
         <v>181014084</v>
       </c>
@@ -1238,7 +3175,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="26">
         <v>182014025</v>
       </c>
@@ -1287,7 +3224,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="26">
         <v>183014016</v>
       </c>
@@ -1336,7 +3273,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="26">
         <v>183014065</v>
       </c>
@@ -1385,7 +3322,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="26">
         <v>191014021</v>
       </c>
@@ -1434,7 +3371,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="26">
         <v>191014048</v>
       </c>
@@ -1483,7 +3420,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="26">
         <v>191014054</v>
       </c>
@@ -1532,7 +3469,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="26">
         <v>191014058</v>
       </c>
@@ -1581,7 +3518,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="26">
         <v>191014081</v>
       </c>
@@ -1630,7 +3567,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="26">
         <v>192014001</v>
       </c>
@@ -1679,7 +3616,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="26">
         <v>192014004</v>
       </c>
@@ -1728,7 +3665,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="26">
         <v>192014005</v>
       </c>
@@ -1777,7 +3714,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="26">
         <v>192014006</v>
       </c>
@@ -1826,7 +3763,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="26">
         <v>192014007</v>
       </c>
@@ -1875,7 +3812,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="26">
         <v>192014008</v>
       </c>
@@ -1924,7 +3861,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="26">
         <v>192014009</v>
       </c>
@@ -1973,7 +3910,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="A20" s="26">
         <v>192014010</v>
       </c>
@@ -2022,7 +3959,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="A21" s="26">
         <v>192014014</v>
       </c>
@@ -2071,7 +4008,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="A22" s="26">
         <v>192014016</v>
       </c>
@@ -2120,7 +4057,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="A23" s="26">
         <v>192014022</v>
       </c>
@@ -2169,7 +4106,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="A24" s="26">
         <v>192014024</v>
       </c>
@@ -2218,7 +4155,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="A25" s="26">
         <v>192014025</v>
       </c>
@@ -2267,7 +4204,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="A26" s="26">
         <v>192014026</v>
       </c>
@@ -2316,7 +4253,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="A27" s="26">
         <v>192014027</v>
       </c>
@@ -2365,7 +4302,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="A28" s="26">
         <v>192014032</v>
       </c>
@@ -2414,7 +4351,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="26">
         <v>192014033</v>
       </c>
@@ -2463,7 +4400,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="A30" s="26">
         <v>192014034</v>
       </c>
@@ -2512,7 +4449,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="A31" s="26">
         <v>192014035</v>
       </c>
@@ -2561,7 +4498,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" customHeight="1">
       <c r="A32" s="26">
         <v>192014036</v>
       </c>
@@ -2610,7 +4547,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="26">
         <v>192014037</v>
       </c>
@@ -2659,7 +4596,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" customHeight="1">
       <c r="A34" s="26">
         <v>192014038</v>
       </c>
@@ -2708,7 +4645,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" customHeight="1">
       <c r="A35" s="26">
         <v>192014040</v>
       </c>
@@ -2757,7 +4694,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" customHeight="1">
       <c r="A36" s="26">
         <v>192014041</v>
       </c>
@@ -2806,7 +4743,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" customHeight="1">
       <c r="A37" s="26">
         <v>192014044</v>
       </c>
@@ -2855,7 +4792,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="26">
         <v>192014045</v>
       </c>
@@ -2904,7 +4841,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" customHeight="1">
       <c r="A39" s="26">
         <v>192014047</v>
       </c>
@@ -2953,7 +4890,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" customHeight="1">
       <c r="A40" s="26">
         <v>193014075</v>
       </c>
@@ -3002,7 +4939,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="31">
         <v>181016002</v>
       </c>
@@ -3085,22 +5022,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1816EF-DFF7-47FF-A554-EFB470FE245D}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="10" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +5069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>171011197</v>
       </c>
@@ -3168,7 +5105,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>171014001</v>
       </c>
@@ -3200,7 +5137,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>181014084</v>
       </c>
@@ -3232,7 +5169,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>182014025</v>
       </c>
@@ -3268,7 +5205,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>183014016</v>
       </c>
@@ -3300,7 +5237,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>183014065</v>
       </c>
@@ -3336,7 +5273,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>191014021</v>
       </c>
@@ -3368,7 +5305,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>191014048</v>
       </c>
@@ -3404,7 +5341,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>191014054</v>
       </c>
@@ -3440,7 +5377,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>191014058</v>
       </c>
@@ -3476,7 +5413,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>191014081</v>
       </c>
@@ -3512,7 +5449,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>192014001</v>
       </c>
@@ -3548,7 +5485,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>192014004</v>
       </c>
@@ -3584,7 +5521,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>192014005</v>
       </c>
@@ -3620,7 +5557,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>192014006</v>
       </c>
@@ -3656,7 +5593,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>192014007</v>
       </c>
@@ -3688,7 +5625,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>192014008</v>
       </c>
@@ -3724,7 +5661,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>192014009</v>
       </c>
@@ -3756,7 +5693,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>192014010</v>
       </c>
@@ -3792,7 +5729,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>192014014</v>
       </c>
@@ -3828,7 +5765,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>192014016</v>
       </c>
@@ -3864,7 +5801,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>192014022</v>
       </c>
@@ -3900,7 +5837,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>192014024</v>
       </c>
@@ -3936,7 +5873,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>192014025</v>
       </c>
@@ -3968,7 +5905,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>192014026</v>
       </c>
@@ -4004,7 +5941,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>192014027</v>
       </c>
@@ -4040,7 +5977,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>192014032</v>
       </c>
@@ -4072,7 +6009,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>192014033</v>
       </c>
@@ -4108,7 +6045,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>192014034</v>
       </c>
@@ -4140,7 +6077,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>192014035</v>
       </c>
@@ -4176,7 +6113,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>192014036</v>
       </c>
@@ -4212,7 +6149,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>192014037</v>
       </c>
@@ -4248,7 +6185,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>192014038</v>
       </c>
@@ -4284,7 +6221,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>192014040</v>
       </c>
@@ -4316,7 +6253,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>192014041</v>
       </c>
@@ -4348,7 +6285,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>192014044</v>
       </c>
@@ -4384,7 +6321,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>192014045</v>
       </c>
@@ -4420,7 +6357,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>192014047</v>
       </c>
@@ -4456,7 +6393,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>193014075</v>
       </c>
@@ -4492,7 +6429,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="16">
         <v>181016002</v>
       </c>
@@ -4544,22 +6481,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5593826D-88F1-4D7F-A8C4-45C3887AE9EE}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="12" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +6534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>171011197</v>
       </c>
@@ -4640,7 +6577,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>171014001</v>
       </c>
@@ -4683,7 +6620,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>181014084</v>
       </c>
@@ -4726,7 +6663,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>182014025</v>
       </c>
@@ -4769,7 +6706,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>183014016</v>
       </c>
@@ -4812,7 +6749,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>183014065</v>
       </c>
@@ -4855,7 +6792,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>191014021</v>
       </c>
@@ -4898,7 +6835,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>191014048</v>
       </c>
@@ -4941,7 +6878,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>191014054</v>
       </c>
@@ -4984,7 +6921,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>191014058</v>
       </c>
@@ -5027,7 +6964,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>191014081</v>
       </c>
@@ -5070,7 +7007,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>192014001</v>
       </c>
@@ -5113,7 +7050,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>192014004</v>
       </c>
@@ -5156,7 +7093,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>192014005</v>
       </c>
@@ -5199,7 +7136,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>192014006</v>
       </c>
@@ -5242,7 +7179,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>192014007</v>
       </c>
@@ -5285,7 +7222,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>192014008</v>
       </c>
@@ -5328,7 +7265,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>192014009</v>
       </c>
@@ -5371,7 +7308,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>192014010</v>
       </c>
@@ -5414,7 +7351,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>192014014</v>
       </c>
@@ -5457,7 +7394,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>192014016</v>
       </c>
@@ -5500,7 +7437,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>192014022</v>
       </c>
@@ -5543,7 +7480,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="4">
         <v>192014024</v>
       </c>
@@ -5586,7 +7523,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>192014025</v>
       </c>
@@ -5629,7 +7566,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>192014026</v>
       </c>
@@ -5672,7 +7609,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>192014027</v>
       </c>
@@ -5715,7 +7652,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>192014032</v>
       </c>
@@ -5758,7 +7695,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <v>192014033</v>
       </c>
@@ -5801,7 +7738,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <v>192014034</v>
       </c>
@@ -5844,7 +7781,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <v>192014035</v>
       </c>
@@ -5887,7 +7824,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <v>192014036</v>
       </c>
@@ -5930,7 +7867,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>192014037</v>
       </c>
@@ -5973,7 +7910,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>192014038</v>
       </c>
@@ -6016,7 +7953,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>192014040</v>
       </c>
@@ -6059,7 +7996,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>192014041</v>
       </c>
@@ -6102,7 +8039,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>192014044</v>
       </c>
@@ -6145,7 +8082,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>192014045</v>
       </c>
@@ -6188,7 +8125,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>192014047</v>
       </c>
@@ -6231,7 +8168,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>193014075</v>
       </c>
@@ -6274,7 +8211,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="16">
         <v>181016002</v>
       </c>
@@ -6317,31 +8254,31 @@
         <v>F</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="K42" s="15"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="K43" s="15"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="K44" s="15"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="K45" s="15"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="K46" s="15"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="K47" s="13"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="K48" s="15"/>
       <c r="L48" s="14"/>
     </row>
@@ -6357,23 +8294,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.95" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6417,7 +8354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>171011197</v>
       </c>
@@ -6461,7 +8398,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>171014001</v>
       </c>
@@ -6507,7 +8444,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>181014084</v>
       </c>
@@ -6547,7 +8484,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>182014025</v>
       </c>
@@ -6591,7 +8528,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>183014016</v>
       </c>
@@ -6631,7 +8568,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>183014065</v>
       </c>
@@ -6671,7 +8608,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>191014021</v>
       </c>
@@ -6715,7 +8652,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>191014048</v>
       </c>
@@ -6761,7 +8698,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>191014054</v>
       </c>
@@ -6805,7 +8742,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>191014058</v>
       </c>
@@ -6849,7 +8786,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>191014081</v>
       </c>
@@ -6891,7 +8828,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>192014001</v>
       </c>
@@ -6935,7 +8872,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>192014004</v>
       </c>
@@ -6979,7 +8916,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>192014005</v>
       </c>
@@ -7025,7 +8962,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>192014006</v>
       </c>
@@ -7069,7 +9006,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>192014007</v>
       </c>
@@ -7109,7 +9046,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>192014008</v>
       </c>
@@ -7153,7 +9090,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>192014009</v>
       </c>
@@ -7197,7 +9134,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>192014010</v>
       </c>
@@ -7241,7 +9178,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>192014014</v>
       </c>
@@ -7287,7 +9224,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>192014016</v>
       </c>
@@ -7329,7 +9266,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="4">
         <v>192014022</v>
       </c>
@@ -7371,7 +9308,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>192014024</v>
       </c>
@@ -7415,7 +9352,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>192014025</v>
       </c>
@@ -7459,7 +9396,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="4">
         <v>192014026</v>
       </c>
@@ -7505,7 +9442,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="4">
         <v>192014027</v>
       </c>
@@ -7549,7 +9486,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" s="4">
         <v>192014032</v>
       </c>
@@ -7595,7 +9532,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="4">
         <v>192014033</v>
       </c>
@@ -7639,7 +9576,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="4">
         <v>192014034</v>
       </c>
@@ -7679,7 +9616,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="4">
         <v>192014035</v>
       </c>
@@ -7727,7 +9664,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="4">
         <v>192014036</v>
       </c>
@@ -7771,7 +9708,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="4">
         <v>192014037</v>
       </c>
@@ -7817,7 +9754,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="4">
         <v>192014038</v>
       </c>
@@ -7865,7 +9802,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="4">
         <v>192014040</v>
       </c>
@@ -7909,7 +9846,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="4">
         <v>192014041</v>
       </c>
@@ -7953,7 +9890,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="4">
         <v>192014044</v>
       </c>
@@ -7993,7 +9930,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="4">
         <v>192014045</v>
       </c>
@@ -8035,7 +9972,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="4">
         <v>192014047</v>
       </c>
@@ -8079,7 +10016,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="9" customFormat="1">
       <c r="A40" s="6">
         <v>193014075</v>
       </c>
@@ -8126,7 +10063,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="4">
         <v>181016002</v>
       </c>
@@ -8203,22 +10140,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="14" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -8262,7 +10199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="26">
         <v>171011197</v>
       </c>
@@ -8310,7 +10247,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="26">
         <v>171014001</v>
       </c>
@@ -8354,7 +10291,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="26">
         <v>181014084</v>
       </c>
@@ -8394,7 +10331,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="26">
         <v>182014025</v>
       </c>
@@ -8438,7 +10375,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="26">
         <v>183014016</v>
       </c>
@@ -8478,7 +10415,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="26">
         <v>183014065</v>
       </c>
@@ -8526,7 +10463,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="26">
         <v>191014021</v>
       </c>
@@ -8574,7 +10511,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="26">
         <v>191014048</v>
       </c>
@@ -8622,7 +10559,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="26">
         <v>191014054</v>
       </c>
@@ -8670,7 +10607,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="26">
         <v>191014058</v>
       </c>
@@ -8714,7 +10651,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="26">
         <v>191014081</v>
       </c>
@@ -8762,7 +10699,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="26">
         <v>192014001</v>
       </c>
@@ -8810,7 +10747,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="26">
         <v>192014004</v>
       </c>
@@ -8858,7 +10795,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="26">
         <v>192014005</v>
       </c>
@@ -8906,7 +10843,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="26">
         <v>192014006</v>
       </c>
@@ -8954,7 +10891,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="26">
         <v>192014007</v>
       </c>
@@ -8994,7 +10931,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="26">
         <v>192014008</v>
       </c>
@@ -9042,7 +10979,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="26">
         <v>192014009</v>
       </c>
@@ -9082,7 +11019,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="26">
         <v>192014010</v>
       </c>
@@ -9130,7 +11067,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="26">
         <v>192014014</v>
       </c>
@@ -9178,7 +11115,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="26">
         <v>192014016</v>
       </c>
@@ -9226,7 +11163,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="26">
         <v>192014022</v>
       </c>
@@ -9274,7 +11211,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="26">
         <v>192014024</v>
       </c>
@@ -9322,7 +11259,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="26">
         <v>192014025</v>
       </c>
@@ -9362,7 +11299,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="26">
         <v>192014026</v>
       </c>
@@ -9406,7 +11343,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="26">
         <v>192014027</v>
       </c>
@@ -9454,7 +11391,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="26">
         <v>192014032</v>
       </c>
@@ -9502,7 +11439,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="26">
         <v>192014033</v>
       </c>
@@ -9550,7 +11487,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="26">
         <v>192014034</v>
       </c>
@@ -9594,7 +11531,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="26">
         <v>192014035</v>
       </c>
@@ -9642,7 +11579,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="26">
         <v>192014036</v>
       </c>
@@ -9686,7 +11623,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="26">
         <v>192014037</v>
       </c>
@@ -9734,7 +11671,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="26">
         <v>192014038</v>
       </c>
@@ -9782,7 +11719,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="26">
         <v>192014040</v>
       </c>
@@ -9826,7 +11763,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="26">
         <v>192014041</v>
       </c>
@@ -9870,7 +11807,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="26">
         <v>192014044</v>
       </c>
@@ -9918,7 +11855,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="26">
         <v>192014045</v>
       </c>
@@ -9966,7 +11903,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="26">
         <v>192014047</v>
       </c>
@@ -10014,7 +11951,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="26">
         <v>193014075</v>
       </c>
@@ -10062,7 +11999,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1">
       <c r="A41" s="31">
         <v>181016002</v>
       </c>
@@ -10102,7 +12039,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="N43" s="35"/>
     </row>
   </sheetData>
@@ -10133,4 +12070,1180 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="38" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="26">
+        <v>171011197</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="43">
+        <f>VLOOKUP(A2,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="43">
+        <f>VLOOKUP(A2,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="43">
+        <f t="shared" ref="E2:E42" si="0">C2+D2</f>
+        <v>18.5</v>
+      </c>
+      <c r="F2" s="43">
+        <f>(E2/E$42)*100</f>
+        <v>92.5</v>
+      </c>
+      <c r="G2" s="44" t="str">
+        <f t="shared" ref="G2:G41" si="1">IF(F2&gt;94,"A+",IF(F2&gt;84,"A",IF(F2&gt;79,"A-",IF(F2&gt;74,"B+",IF(F2&gt;69,"B",IF(F2&gt;64,"B-",IF(F2&gt;59,"C+",IF(F2&gt;54,"C",IF(F2&gt;49,"D","F")))))))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>171014001</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="43">
+        <f>VLOOKUP(A3,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="43">
+        <f>VLOOKUP(A3,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="43">
+        <f t="shared" ref="F3:F41" si="2">(E3/E$42)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G3" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26">
+        <v>181014084</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="43">
+        <f>VLOOKUP(A4,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="43">
+        <f>VLOOKUP(A4,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F4" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G4" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26">
+        <v>182014025</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43">
+        <f>VLOOKUP(A5,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="43">
+        <f>VLOOKUP(A5,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G5" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26">
+        <v>183014016</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43">
+        <f>VLOOKUP(A6,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="43">
+        <f>VLOOKUP(A6,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G6" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26">
+        <v>183014065</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="43">
+        <f>VLOOKUP(A7,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="43">
+        <f>VLOOKUP(A7,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G7" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26">
+        <v>191014021</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="43">
+        <f>VLOOKUP(A8,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="43">
+        <f>VLOOKUP(A8,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="F8" s="43">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G8" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="26">
+        <v>191014048</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="43">
+        <f>VLOOKUP(A9,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D9" s="43">
+        <f>VLOOKUP(A9,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G9" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="26">
+        <v>191014054</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="43">
+        <f>VLOOKUP(A10,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="43">
+        <f>VLOOKUP(A10,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="43">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26">
+        <v>191014058</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="43">
+        <f>VLOOKUP(A11,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="43">
+        <f>VLOOKUP(A11,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G11" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26">
+        <v>191014081</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="43">
+        <f>VLOOKUP(A12,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="43">
+        <f>VLOOKUP(A12,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G12" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="26">
+        <v>192014001</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43">
+        <f>VLOOKUP(A13,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="43">
+        <f>VLOOKUP(A13,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G13" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="26">
+        <v>192014004</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="43">
+        <f>VLOOKUP(A14,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D14" s="43">
+        <f>VLOOKUP(A14,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="43">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G14" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="26">
+        <v>192014005</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="43">
+        <f>VLOOKUP(A15,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="43">
+        <f>VLOOKUP(A15,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="43">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G15" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="26">
+        <v>192014006</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="43">
+        <f>VLOOKUP(A16,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D16" s="43">
+        <f>VLOOKUP(A16,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="43">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F16" s="43">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G16" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26">
+        <v>192014007</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="43">
+        <f>VLOOKUP(A17,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="43">
+        <f>VLOOKUP(A17,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F17" s="43">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G17" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26">
+        <v>192014008</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="43">
+        <f>VLOOKUP(A18,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="43">
+        <f>VLOOKUP(A18,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="43">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G18" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26">
+        <v>192014009</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="43">
+        <f>VLOOKUP(A19,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D19" s="43">
+        <f>VLOOKUP(A19,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F19" s="43">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G19" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="26">
+        <v>192014010</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="43">
+        <f>VLOOKUP(A20,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D20" s="43">
+        <f>VLOOKUP(A20,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F20" s="43">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G20" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26">
+        <v>192014014</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="43">
+        <f>VLOOKUP(A21,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="43">
+        <f>VLOOKUP(A21,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F21" s="43">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G21" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26">
+        <v>192014016</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="43">
+        <f>VLOOKUP(A22,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D22" s="43">
+        <f>VLOOKUP(A22,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="43">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G22" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="26">
+        <v>192014022</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="43">
+        <f>VLOOKUP(A23,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="43">
+        <f>VLOOKUP(A23,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F23" s="43">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G23" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="26">
+        <v>192014024</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="43">
+        <f>VLOOKUP(A24,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="43">
+        <f>VLOOKUP(A24,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F24" s="43">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G24" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26">
+        <v>192014025</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="43">
+        <f>VLOOKUP(A25,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D25" s="43">
+        <f>VLOOKUP(A25,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G25" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="26">
+        <v>192014026</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="43">
+        <f>VLOOKUP(A26,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="43">
+        <f>VLOOKUP(A26,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F26" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G26" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="26">
+        <v>192014027</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="43">
+        <f>VLOOKUP(A27,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D27" s="43">
+        <f>VLOOKUP(A27,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F27" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G27" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="26">
+        <v>192014032</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="43">
+        <f>VLOOKUP(A28,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="43">
+        <f>VLOOKUP(A28,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F28" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G28" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26">
+        <v>192014033</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="43">
+        <f>VLOOKUP(A29,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="43">
+        <f>VLOOKUP(A29,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F29" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G29" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26">
+        <v>192014034</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="43">
+        <f>VLOOKUP(A30,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D30" s="43">
+        <f>VLOOKUP(A30,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F30" s="43">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G30" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26">
+        <v>192014035</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="43">
+        <f>VLOOKUP(A31,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="43">
+        <f>VLOOKUP(A31,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G31" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26">
+        <v>192014036</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="43">
+        <f>VLOOKUP(A32,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D32" s="43">
+        <f>VLOOKUP(A32,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E32" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F32" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G32" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26">
+        <v>192014037</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="43">
+        <f>VLOOKUP(A33,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="43">
+        <f>VLOOKUP(A33,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F33" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G33" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26">
+        <v>192014038</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="43">
+        <f>VLOOKUP(A34,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D34" s="43">
+        <f>VLOOKUP(A34,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F34" s="43">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G34" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26">
+        <v>192014040</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="43">
+        <f>VLOOKUP(A35,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D35" s="43">
+        <f>VLOOKUP(A35,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F35" s="43">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="G35" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="26">
+        <v>192014041</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="43">
+        <f>VLOOKUP(A36,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="43">
+        <f>VLOOKUP(A36,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F36" s="43">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G36" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="26">
+        <v>192014044</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="43">
+        <f>VLOOKUP(A37,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="43">
+        <f>VLOOKUP(A37,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F37" s="43">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G37" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="26">
+        <v>192014045</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="43">
+        <f>VLOOKUP(A38,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D38" s="43">
+        <f>VLOOKUP(A38,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="F38" s="43">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="G38" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26">
+        <v>192014047</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="43">
+        <f>VLOOKUP(A39,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D39" s="43">
+        <f>VLOOKUP(A39,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F39" s="43">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G39" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="26">
+        <v>193014075</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="43">
+        <f>VLOOKUP(A40,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D40" s="43">
+        <f>VLOOKUP(A40,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="F40" s="43">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G40" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A41" s="31">
+        <v>181016002</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="45">
+        <f>VLOOKUP(A41,[1]Sheet1!B$2:C$48,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D41" s="45">
+        <f>VLOOKUP(A41,[1]Sheet1!D$2:E$48,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E41" s="45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G41" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="38">
+        <v>10</v>
+      </c>
+      <c r="D42" s="38">
+        <v>10</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>